--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32576-d271318-Reviews-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Vagabond-Inn-La-Habra.h3723881.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,219 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r562008377-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>32576</t>
+  </si>
+  <si>
+    <t>271318</t>
+  </si>
+  <si>
+    <t>562008377</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Vagabond Inn Review</t>
+  </si>
+  <si>
+    <t>It was great for the price. The king bed room is nice and big, they have direct tv and the room was very clean and nice looking. The wifi didn't really work but overall satisfied with my stay. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r560311532-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>560311532</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are clean , comfortable . The accommodations are the best within the surrounding areas for the price. Checking in was hassle free and quick. The property is well maintained and rooms are updated and cozy. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r556574488-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>556574488</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean but sparse on suppliesNo hand towelsOne tiny round soap to share between sink and tub$10 “ cash” deposit required for tv remote control No breakfast tho it’s advertised and that’s why I booked itParking is tight </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r537889764-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>537889764</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>ring bell noise</t>
+  </si>
+  <si>
+    <t>We have the first room close the front desk, before to get in we ask about the ring bell, the guy is in the desk say dont worry is stop at night, but is not true, we earing all night, is too noise to sleep well.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r537367592-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>537367592</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Had a great nights sleep!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay, a good nights sleep, and happy the showers had good pressure! The staff was friendly and the place was quiet, overall we were happy with our stay in the Vagabond Inn!! We would stay again, </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r526122997-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>526122997</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>The housekeeping clean the room magnificently. I will recommend this Motel to anybody because the owners are very friendly. On Saturdays and Sundays they have breakfast like bananas, apples, muffins, &amp; coffee. This place is one of the best motels I've ever been to.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r508869855-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>508869855</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>We stayed five nights.  Motel has newly refurbished rooms.  It is a quiet location and convenient to many attractions.  Breakfast consisted of commercial chocolate muffins coffee and apples on the weekend and coffee during the week.  Room service was slow to begin but once it began, it was good.  Everything worked fine.  WIFI did not work real well inside the room but reception was better outside. An iron was available; but no ironing boards were available.  Be prepared to buy some items for breakfast or eat out.   Our room had a refrigerator and microwave; and my understanding is that all rooms have these.  The TV's were widescreen with a wide variety of programming.  Staff in the office was friendly.  Overall, we had a good experience and would come back.   .   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We stayed five nights.  Motel has newly refurbished rooms.  It is a quiet location and convenient to many attractions.  Breakfast consisted of commercial chocolate muffins coffee and apples on the weekend and coffee during the week.  Room service was slow to begin but once it began, it was good.  Everything worked fine.  WIFI did not work real well inside the room but reception was better outside. An iron was available; but no ironing boards were available.  Be prepared to buy some items for breakfast or eat out.   Our room had a refrigerator and microwave; and my understanding is that all rooms have these.  The TV's were widescreen with a wide variety of programming.  Staff in the office was friendly.  Overall, we had a good experience and would come back.   .   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r507934286-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>507934286</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Friendly check-in but ...</t>
+  </si>
+  <si>
+    <t>Ants in room joined me in bed shortly after the late check-in next door began blasting the TV, chattering, and driving back and forth to the store for snacks. I cut the checkout time close due to exhaustion and the check-out staff was kind of gruff about the whole thing. I hope they hire a good exterminator and post quiet time rules.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r506242649-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>506242649</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Not Satissfied With Hotel Clerk Info</t>
+  </si>
+  <si>
+    <t>Not happy with price recommendation from clerk when I was contacting him by the phone nonunderstanding of prices he was giving and what was online he was trying to make me pay mor then listed advertisement and stated rooms were sold out night I needed the room , which I was still able to book on line and get to stay at the Vagabond in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r491035408-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>491035408</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>This visit just so,so</t>
+  </si>
+  <si>
+    <t>The room was clean and nice whe we arrived on Thurs. but was not cleaned again until Sunday afternoon. There are no hand towels or ice machine. I guess the old adage is true you get what you pay for...</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r490854316-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
+  </si>
+  <si>
+    <t>490854316</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>No non-smoking room</t>
+  </si>
+  <si>
+    <t>This hotel doesn't have Non-Smoking room. I made reservation of Non-Smoking room but I was assigned a room with strong smoking odor covered by air spray. Also, if you don't wear shoes inside the room, your barefoot sole will be black.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -648,6 +861,723 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66101</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_815.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Selina G</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Marisa T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r560311532-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>KEP89410</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r556574488-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>pedrosM6717XK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r537889764-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>686reubens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r537367592-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t xml:space="preserve">We had a great stay, a good nights sleep, and happy the showers had good pressure! The staff was friendly and the place was quiet, overall we were happy with our stay in the Vagabond Inn!! We would stay again, </t>
   </si>
   <si>
+    <t>A2093OQdanielm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r526122997-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Y5962ZRgeorgeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r508869855-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>We stayed five nights.  Motel has newly refurbished rooms.  It is a quiet location and convenient to many attractions.  Breakfast consisted of commercial chocolate muffins coffee and apples on the weekend and coffee during the week.  Room service was slow to begin but once it began, it was good.  Everything worked fine.  WIFI did not work real well inside the room but reception was better outside. An iron was available; but no ironing boards were available.  Be prepared to buy some items for breakfast or eat out.   Our room had a refrigerator and microwave; and my understanding is that all rooms have these.  The TV's were widescreen with a wide variety of programming.  Staff in the office was friendly.  Overall, we had a good experience and would come back.   .   More</t>
   </si>
   <si>
+    <t>ol_stinky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r507934286-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>Ants in room joined me in bed shortly after the late check-in next door began blasting the TV, chattering, and driving back and forth to the store for snacks. I cut the checkout time close due to exhaustion and the check-out staff was kind of gruff about the whole thing. I hope they hire a good exterminator and post quiet time rules.</t>
   </si>
   <si>
+    <t>yellowface33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r506242649-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -321,6 +348,9 @@
     <t>Not happy with price recommendation from clerk when I was contacting him by the phone nonunderstanding of prices he was giving and what was online he was trying to make me pay mor then listed advertisement and stated rooms were sold out night I needed the room , which I was still able to book on line and get to stay at the Vagabond in.</t>
   </si>
   <si>
+    <t>579dennisr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r491035408-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
   </si>
   <si>
@@ -340,6 +370,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Hideyuki H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32576-d271318-r490854316-Vagabond_Inn_La_Habra-La_Habra_California.html</t>
@@ -865,43 +898,47 @@
       <c r="A2" t="n">
         <v>66101</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -925,50 +962,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66101</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -992,50 +1033,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66101</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1049,50 +1094,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66101</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1116,50 +1165,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66101</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1183,50 +1236,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66101</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1250,50 +1307,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66101</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1317,50 +1378,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66101</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1384,50 +1449,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66101</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1451,50 +1520,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66101</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1518,50 +1591,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66101</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1575,7 +1652,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
